--- a/ques1/report_out/character_screen_time_report.xlsx
+++ b/ques1/report_out/character_screen_time_report.xlsx
@@ -10,18 +10,18 @@
     <sheet name="Character_0_occ" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Character_0_clips" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Character_0_dialogs" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Character_3_occ" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Character_3_clips" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Character_3_dialogs" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Character_7_occ" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Character_7_clips" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Character_7_dialogs" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Character_2_occ" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Character_2_clips" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Character_2_dialogs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Character_12_occ" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Character_12_clips" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Character_12_dialogs" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Character_8_occ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Character_8_clips" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Character_8_dialogs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Character_5_occ" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Character_5_clips" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Character_5_dialogs" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Character_13_occ" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Character_13_clips" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Character_13_dialogs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Character_4_occ" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Character_4_clips" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Character_4_dialogs" sheetId="15" state="visible" r:id="rId15"/>
     <sheet name="Top_Punchy_Dialogues" sheetId="16" state="visible" r:id="rId16"/>
     <sheet name="Summary" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
@@ -441,7 +441,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,380 +473,408 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>11.8</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28</v>
+        <v>26.8</v>
       </c>
       <c r="B5" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.400000000000002</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32</v>
+        <v>31.4</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>32.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.9999999999999964</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>35</v>
+        <v>34.1</v>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>41.2</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>7.100000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>47.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.199999999999996</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>47</v>
+        <v>49.2</v>
       </c>
       <c r="B9" t="n">
-        <v>47</v>
+        <v>50.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.700000000000003</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B10" t="n">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>54</v>
+        <v>61.1</v>
       </c>
       <c r="B11" t="n">
-        <v>57</v>
+        <v>63.2</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2.100000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>62</v>
+        <v>72.2</v>
       </c>
       <c r="B12" t="n">
-        <v>63</v>
+        <v>76.10000000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>3.900000000000006</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>73</v>
+        <v>78.7</v>
       </c>
       <c r="B13" t="n">
-        <v>76</v>
+        <v>82.2</v>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>79</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="B14" t="n">
-        <v>82</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>92</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="B15" t="n">
-        <v>92</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>97</v>
+        <v>101.3</v>
       </c>
       <c r="B16" t="n">
-        <v>98</v>
+        <v>102.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>102</v>
+        <v>103.9</v>
       </c>
       <c r="B17" t="n">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>104</v>
+        <v>111.1</v>
       </c>
       <c r="B18" t="n">
-        <v>105</v>
+        <v>113.3</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2.200000000000003</v>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>112</v>
+        <v>117.2</v>
       </c>
       <c r="B19" t="n">
-        <v>113</v>
+        <v>118.7</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>118</v>
+        <v>120.2</v>
       </c>
       <c r="B20" t="n">
-        <v>118</v>
+        <v>122.3</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2.100000000000009</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>121</v>
+        <v>124.3</v>
       </c>
       <c r="B21" t="n">
-        <v>122</v>
+        <v>129.2</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>4.900000000000006</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B22" t="n">
-        <v>129</v>
+        <v>133.1</v>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>1.099999999999994</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>132</v>
+        <v>134.5</v>
       </c>
       <c r="B23" t="n">
-        <v>133</v>
+        <v>136.2</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>1.700000000000017</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>135</v>
+        <v>140.2</v>
       </c>
       <c r="B24" t="n">
-        <v>136</v>
+        <v>146.2</v>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>141</v>
+        <v>148.5</v>
       </c>
       <c r="B25" t="n">
-        <v>146</v>
+        <v>149.7</v>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>1.200000000000017</v>
       </c>
       <c r="D25" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>149</v>
+        <v>153.1</v>
       </c>
       <c r="B26" t="n">
-        <v>149</v>
+        <v>156.1</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>3.000000000000028</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>172</v>
+        <v>164.7</v>
       </c>
       <c r="B27" t="n">
-        <v>173</v>
+        <v>167.5</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>2.799999999999983</v>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>178</v>
+        <v>169.2</v>
       </c>
       <c r="B28" t="n">
-        <v>178</v>
+        <v>169.4</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>0.1999999999999886</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>171.4</v>
+      </c>
+      <c r="B29" t="n">
+        <v>173.8</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.400000000000006</v>
+      </c>
+      <c r="D29" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>177.5</v>
+      </c>
+      <c r="B30" t="n">
+        <v>179.6</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.100000000000023</v>
+      </c>
+      <c r="D30" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -860,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -892,30 +920,212 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9</v>
+        <v>41.3</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>41.3</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22</v>
+        <v>47.7</v>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>49.1</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>1.399999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>54</v>
+      </c>
+      <c r="B4" t="n">
+        <v>57</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>99</v>
+      </c>
+      <c r="B5" t="n">
+        <v>101.2</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>102.5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>103.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.300000000000011</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>106.2</v>
+      </c>
+      <c r="B7" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="C7" t="n">
+        <v>4.700000000000003</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="D8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>118.8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>130.9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>131.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>133.2</v>
+      </c>
+      <c r="B11" t="n">
+        <v>134.4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.199999999999989</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>153</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.599999999999994</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>160.3</v>
+      </c>
+      <c r="B13" t="n">
+        <v>164.6</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.300000000000011</v>
+      </c>
+      <c r="D13" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.699999999999989</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="B15" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>184.2</v>
+      </c>
+      <c r="B16" t="n">
+        <v>187</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.799999999999983</v>
+      </c>
+      <c r="D16" t="n">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -966,30 +1176,6 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>22</v>
-      </c>
-      <c r="C2" t="n">
-        <v>28</v>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>TopClip_C2_1_22s</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Chosen because character is continuously on-screen for 6.0s. Score=6.82.</t>
         </is>
       </c>
     </row>
@@ -1045,7 +1231,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,72 +1263,30 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>99</v>
+        <v>7.2</v>
       </c>
       <c r="B2" t="n">
-        <v>101</v>
+        <v>10.4</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>109</v>
+        <v>21.8</v>
       </c>
       <c r="B3" t="n">
-        <v>110</v>
+        <v>28.2</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>6.400000000000002</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>116</v>
-      </c>
-      <c r="B4" t="n">
-        <v>117</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>131</v>
-      </c>
-      <c r="B5" t="n">
-        <v>131</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>152</v>
-      </c>
-      <c r="B6" t="n">
-        <v>153</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1193,6 +1337,30 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.400000000000002</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TopClip_C4_1_21s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Chosen because character is continuously on-screen for 6.4s. Score=7.23.</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1464,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2.108967991787107</v>
+        <v>2.109114118264758</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1306,14 +1474,14 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>178</v>
+        <v>204.22</v>
       </c>
       <c r="B3" t="n">
-        <v>179.04</v>
+        <v>206.66</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>It makes me look so tough.</t>
+          <t>chased Z Dylan to the aqueles</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1327,18 +1495,18 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>115.44</v>
+        <v>178</v>
       </c>
       <c r="B4" t="n">
-        <v>116.94</v>
+        <v>179.04</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Security's here. You'll be leaving now.</t>
+          <t>It makes me look so tough.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.730467637704314</v>
+        <v>1.730574252163133</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -1348,18 +1516,18 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103.9</v>
+        <v>115.44</v>
       </c>
       <c r="B5" t="n">
-        <v>105.18</v>
+        <v>116.94</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>It's because I froze the account.</t>
+          <t>Security's here. You'll be leaving now.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.414213562373095</v>
+        <v>1.730484162172252</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1369,14 +1537,14 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102.54</v>
+        <v>103.9</v>
       </c>
       <c r="B6" t="n">
-        <v>103.9</v>
+        <v>105.18</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>You might want to check again.</t>
+          <t>It's because I froze the account.</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -1429,54 +1597,54 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>73.70000000000007</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>42.90000000000005</v>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>39.09999999999998</v>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>35.89999999999998</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1658,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1535,22 +1703,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="C2" t="n">
-        <v>21</v>
+        <v>21.7</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>8.400000000000002</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>TopClip_C0_1_14s</t>
+          <t>TopClip_C0_1_13s</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Chosen because character is continuously on-screen for 7.0s. Score=16.82.</t>
+          <t>Chosen because character is continuously on-screen for 8.4s. Score=18.40.</t>
         </is>
       </c>
     </row>
@@ -1559,22 +1727,46 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>141</v>
+        <v>140.2</v>
       </c>
       <c r="C3" t="n">
-        <v>146</v>
+        <v>146.2</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TopClip_C0_2_141s</t>
+          <t>TopClip_C0_2_140s</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chosen because character is continuously on-screen for 5.0s. Score=10.67.</t>
+          <t>Chosen because character is continuously on-screen for 6.0s. Score=11.81.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.100000000000001</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>TopClip_C0_3_34s</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chosen because character is continuously on-screen for 7.1s. Score=10.95.</t>
         </is>
       </c>
     </row>
@@ -1589,7 +1781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1622,7 +1814,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TopClip_C0_1_14s</t>
+          <t>TopClip_C0_1_13s</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1640,7 +1832,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TopClip_C0_1_14s</t>
+          <t>TopClip_C0_1_13s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1658,7 +1850,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TopClip_C0_1_14s</t>
+          <t>TopClip_C0_1_13s</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1676,73 +1868,145 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TopClip_C0_2_141s</t>
+          <t>TopClip_C0_2_140s</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>I am.</t>
+          <t>is that they identified me as a co-founder of Facebook, which</t>
         </is>
       </c>
       <c r="C5" t="n">
+        <v>136.78</v>
+      </c>
+      <c r="D5" t="n">
         <v>140.58</v>
-      </c>
-      <c r="D5" t="n">
-        <v>141.24</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TopClip_C0_2_141s</t>
+          <t>TopClip_C0_2_140s</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>You better lawyer up, asshole, because I'm</t>
+          <t>I am.</t>
         </is>
       </c>
       <c r="C6" t="n">
+        <v>140.58</v>
+      </c>
+      <c r="D6" t="n">
         <v>141.24</v>
-      </c>
-      <c r="D6" t="n">
-        <v>143.58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TopClip_C0_2_141s</t>
+          <t>TopClip_C0_2_140s</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>not coming back for 30%.</t>
+          <t>You better lawyer up, asshole, because I'm</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>141.24</v>
+      </c>
+      <c r="D7" t="n">
         <v>143.58</v>
-      </c>
-      <c r="D7" t="n">
-        <v>145.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TopClip_C0_2_141s</t>
+          <t>TopClip_C0_2_140s</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>not coming back for 30%.</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>143.58</v>
+      </c>
+      <c r="D8" t="n">
+        <v>145.6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TopClip_C0_2_140s</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>I'm coming back for everything.</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>145.6</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>147.9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TopClip_C0_3_34s</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mr. Saab.</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" t="n">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TopClip_C0_3_34s</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mark.</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>37.9</v>
+      </c>
+      <c r="D11" t="n">
+        <v>40.8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TopClip_C0_3_34s</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mark.</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>40.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41.7</v>
       </c>
     </row>
   </sheetData>
@@ -1751,6 +2015,589 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>start_sec</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>end_sec</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>duration_sec</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>frames</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="B2" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.699999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B3" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8000000000000043</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38.90000000000001</v>
+      </c>
+      <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.099999999999994</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>44.90000000000001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.700000000000003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7999999999999972</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>54</v>
+      </c>
+      <c r="B7" t="n">
+        <v>54.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1000000000000014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>57</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.699999999999996</v>
+      </c>
+      <c r="D8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>99</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.900000000000006</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>109</v>
+      </c>
+      <c r="B10" t="n">
+        <v>110.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.900000000000006</v>
+      </c>
+      <c r="D10" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="B11" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="D11" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>120.2</v>
+      </c>
+      <c r="B12" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.100000000000009</v>
+      </c>
+      <c r="D12" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131</v>
+      </c>
+      <c r="B13" t="n">
+        <v>131.3</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="C14" t="n">
+        <v>8.400000000000006</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>162.8</v>
+      </c>
+      <c r="B15" t="n">
+        <v>165.2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.400000000000006</v>
+      </c>
+      <c r="D15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="B16" t="n">
+        <v>171.3</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.699999999999989</v>
+      </c>
+      <c r="D16" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>173.9</v>
+      </c>
+      <c r="B17" t="n">
+        <v>177.4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>181.1</v>
+      </c>
+      <c r="B18" t="n">
+        <v>184.1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="B19" t="n">
+        <v>186.2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.9000000000000057</v>
+      </c>
+      <c r="D19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="B20" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="B21" t="n">
+        <v>198.2</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.900000000000006</v>
+      </c>
+      <c r="D21" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>200.3</v>
+      </c>
+      <c r="B22" t="n">
+        <v>200.6</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="B23" t="n">
+        <v>205.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="B24" t="n">
+        <v>206.7</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>208.1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>duration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>151.4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>159.8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.400000000000006</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Chosen because character is continuously on-screen for 8.4s. Score=8.51.</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>clip_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>start</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>end</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Get him out of here.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>150</v>
+      </c>
+      <c r="D2" t="n">
+        <v>155.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>It's OK.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>155.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I'm going.</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>156.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hang on.</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>156.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>157.8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TopClip_C8_1_151s</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I almost forgot.</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>157.8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>162.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1788,569 +2635,240 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="B2" t="n">
-        <v>13</v>
+        <v>13.2</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>1.300000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>46</v>
+        <v>42.2</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>44.2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>51</v>
+        <v>45.3</v>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>46.3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B5" t="n">
-        <v>61</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2.900000000000006</v>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>64</v>
+        <v>59.40000000000001</v>
       </c>
       <c r="B6" t="n">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>77</v>
+        <v>63.3</v>
       </c>
       <c r="B7" t="n">
-        <v>78</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>83</v>
+        <v>76.2</v>
       </c>
       <c r="B8" t="n">
-        <v>84</v>
+        <v>78.60000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2.400000000000006</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>91</v>
+        <v>82.30000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>91</v>
+        <v>84.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.399999999999991</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="B10" t="n">
-        <v>96</v>
+        <v>96.30000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>6.200000000000003</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>106</v>
+        <v>105.1</v>
       </c>
       <c r="B11" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>114</v>
+        <v>113.4</v>
       </c>
       <c r="B12" t="n">
-        <v>115</v>
+        <v>115.3</v>
       </c>
       <c r="C12" t="n">
-        <v>1</v>
+        <v>1.900000000000006</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>123</v>
+        <v>122.4</v>
       </c>
       <c r="B13" t="n">
-        <v>124</v>
+        <v>124.2</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>1.799999999999997</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>130</v>
+        <v>129.3</v>
       </c>
       <c r="B14" t="n">
-        <v>130</v>
+        <v>130.8</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>137</v>
+        <v>136.3</v>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>140.1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>3.799999999999983</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>147</v>
+        <v>146.3</v>
       </c>
       <c r="B16" t="n">
-        <v>148</v>
+        <v>148.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2.099999999999994</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>150</v>
+        <v>149.8</v>
       </c>
       <c r="B17" t="n">
-        <v>151</v>
+        <v>151.3</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>188</v>
+        <v>187.1</v>
       </c>
       <c r="B18" t="n">
-        <v>188</v>
+        <v>188.7</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.599999999999994</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>rank</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>duration</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>reason</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>clip_title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>text</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>start</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>end</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>start_sec</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>end_sec</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>duration_sec</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frames</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B2" t="n">
-        <v>49</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>54</v>
-      </c>
-      <c r="B3" t="n">
-        <v>57</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>100</v>
-      </c>
-      <c r="B4" t="n">
-        <v>101</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>103</v>
-      </c>
-      <c r="B5" t="n">
-        <v>103</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>107</v>
-      </c>
-      <c r="B6" t="n">
-        <v>110</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>117</v>
-      </c>
-      <c r="B7" t="n">
-        <v>117</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>120</v>
-      </c>
-      <c r="B8" t="n">
-        <v>122</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>131</v>
-      </c>
-      <c r="B9" t="n">
-        <v>131</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>134</v>
-      </c>
-      <c r="B10" t="n">
-        <v>134</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>152</v>
-      </c>
-      <c r="B11" t="n">
-        <v>152</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>168</v>
-      </c>
-      <c r="B12" t="n">
-        <v>169</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>171</v>
-      </c>
-      <c r="B13" t="n">
-        <v>171</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>174</v>
-      </c>
-      <c r="B14" t="n">
-        <v>177</v>
-      </c>
-      <c r="C14" t="n">
-        <v>3</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>185</v>
-      </c>
-      <c r="B15" t="n">
-        <v>187</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2364,7 +2882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2401,6 +2919,30 @@
       <c r="F1" s="1" t="inlineStr">
         <is>
           <t>reason</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>90.10000000000001</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96.30000000000001</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.200000000000003</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>TopClip_C5_1_90s</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Chosen because character is continuously on-screen for 6.2s. Score=12.87.</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,6 +2987,78 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TopClip_C5_1_90s</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>You signed the papers.</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>90</v>
+      </c>
+      <c r="D2" t="n">
+        <v>91.59999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TopClip_C5_1_90s</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>You set me up.</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>91.59999999999999</v>
+      </c>
+      <c r="D3" t="n">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TopClip_C5_1_90s</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>You're going to blame me because you were the business head</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>92.7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>94.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TopClip_C5_1_90s</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>of the company and you made a bad business deal</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>94.66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>96.38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
